--- a/tabela.xlsx
+++ b/tabela.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20338"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin.tonolli\PycharmProjects\Certificado_automatizado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CertificadoAutomatizado-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480EAE12-6E08-488F-AD98-0A5F3EF29C79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{2505726A-69CC-404A-A1A3-453FAC1F2C4E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,37 +24,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Nomes</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Leandro Neves</t>
   </si>
   <si>
-    <t xml:space="preserve">Daniel Cruz </t>
-  </si>
-  <si>
-    <t>Thiago Martins</t>
-  </si>
-  <si>
-    <t>leonardo tonolli</t>
-  </si>
-  <si>
-    <t>Katia padua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">felipe albuquerque </t>
-  </si>
-  <si>
-    <t>Gabriel Leao</t>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Nome_certificado</t>
+  </si>
+  <si>
+    <t>leo07tonolli@gmail.com</t>
+  </si>
+  <si>
+    <t>Leonardo Tonolli</t>
+  </si>
+  <si>
+    <t>Katia Padua</t>
+  </si>
+  <si>
+    <t>katiapruela@gmail.com</t>
+  </si>
+  <si>
+    <t>leandro.neves01@fatec.sp.gov.br</t>
+  </si>
+  <si>
+    <t>Leonardo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leandro </t>
+  </si>
+  <si>
+    <t>Email</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,16 +74,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -80,14 +105,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -399,59 +444,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEBD9ED2-932B-46B8-9619-9B515475BC65}">
-  <dimension ref="A1:A8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>